--- a/config_1.11/act_ty_gifts_config.xlsx
+++ b/config_1.11/act_ty_gifts_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -666,10 +666,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>购买礼包，在游戏中获得的灯笼在排行榜中有额外加成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>加成效果仅限购买礼包当日</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -718,6 +714,10 @@
   </si>
   <si>
     <t>act_016_hflb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包，在游戏中获得的欢乐券在排行榜中有额外加成</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1216,7 +1216,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
@@ -1245,7 +1245,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>135</v>
@@ -2033,25 +2033,25 @@
         <v>41</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="L14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>49</v>
@@ -2077,25 +2077,25 @@
         <v>41</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="L15" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="N15" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="Q15" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>49</v>
@@ -2121,25 +2121,25 @@
         <v>41</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="L16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="N16" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="Q16" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>49</v>
@@ -2165,25 +2165,25 @@
         <v>41</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="N17" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="Q17" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>49</v>
@@ -2573,8 +2573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
@@ -2604,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
